--- a/downloaded_files/MDPS242_Tutorial-35697.xlsx
+++ b/downloaded_files/MDPS242_Tutorial-35697.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -136,6 +136,15 @@
   </x:si>
   <x:si>
     <x:t>omar mohamed farouk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240198</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمرو محمد عبد السلام ابراهيم ابو سعده</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Amr Mohamed Abdulsalam Aboseada</x:t>
   </x:si>
   <x:si>
     <x:t>4240038</x:t>
@@ -422,7 +431,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -722,7 +731,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T32"/>
+  <x:dimension ref="A1:T33"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1195,7 +1204,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4200526273</x:v>
+        <x:v>45922.9380265046</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1227,7 +1236,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6649026968</x:v>
+        <x:v>45907.4200526273</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1259,7 +1268,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45915.1683202894</x:v>
+        <x:v>45907.6649026968</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1291,7 +1300,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4208318634</x:v>
+        <x:v>45915.1683202894</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1323,7 +1332,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6651923611</x:v>
+        <x:v>45907.4208318634</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1355,7 +1364,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6647313657</x:v>
+        <x:v>45907.6651923611</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1387,7 +1396,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4201279745</x:v>
+        <x:v>45907.6647313657</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1419,7 +1428,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4219587963</x:v>
+        <x:v>45907.4201279745</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1451,7 +1460,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.676606331</x:v>
+        <x:v>45907.4219587963</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1483,7 +1492,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.442697419</x:v>
+        <x:v>45907.676606331</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1515,7 +1524,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6752527778</x:v>
+        <x:v>45907.442697419</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1547,7 +1556,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4205435185</x:v>
+        <x:v>45907.6752527778</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1579,7 +1588,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4202043171</x:v>
+        <x:v>45907.4205435185</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1611,7 +1620,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4196388889</x:v>
+        <x:v>45907.4202043171</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1643,7 +1652,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4200031597</x:v>
+        <x:v>45907.4196388889</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1675,7 +1684,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.671475463</x:v>
+        <x:v>45907.4200031597</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1707,7 +1716,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4206327546</x:v>
+        <x:v>45907.671475463</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1739,7 +1748,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.414475463</x:v>
+        <x:v>45907.4206327546</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1771,7 +1780,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4197322917</x:v>
+        <x:v>45907.414475463</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1788,6 +1797,38 @@
       <x:c r="R32" s="2" t="s"/>
       <x:c r="S32" s="2" t="s"/>
       <x:c r="T32" s="2" t="s"/>
+    </x:row>
+    <x:row r="33" spans="1:20">
+      <x:c r="A33" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B33" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="C33" s="2" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="D33" s="2" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="E33" s="3">
+        <x:v>45907.4197322917</x:v>
+      </x:c>
+      <x:c r="F33" s="2" t="s"/>
+      <x:c r="G33" s="2" t="s"/>
+      <x:c r="H33" s="2" t="s"/>
+      <x:c r="I33" s="2" t="s"/>
+      <x:c r="J33" s="2" t="s"/>
+      <x:c r="K33" s="2" t="s"/>
+      <x:c r="L33" s="2" t="s"/>
+      <x:c r="M33" s="2" t="s"/>
+      <x:c r="N33" s="2" t="s"/>
+      <x:c r="O33" s="2" t="s"/>
+      <x:c r="P33" s="2" t="s"/>
+      <x:c r="Q33" s="2" t="s"/>
+      <x:c r="R33" s="2" t="s"/>
+      <x:c r="S33" s="2" t="s"/>
+      <x:c r="T33" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS242_Tutorial-35697.xlsx
+++ b/downloaded_files/MDPS242_Tutorial-35697.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -136,6 +136,15 @@
   </x:si>
   <x:si>
     <x:t>omar mohamed farouk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250208</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر هانى محمد حسن محمد سعيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Hani Mohammed Hassan Mohammed Saeed</x:t>
   </x:si>
   <x:si>
     <x:t>1240198</x:t>
@@ -431,7 +440,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -731,7 +740,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T33"/>
+  <x:dimension ref="A1:T34"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1204,7 +1213,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45922.9380265046</x:v>
+        <x:v>45924.5387831829</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1236,7 +1245,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4200526273</x:v>
+        <x:v>45922.9380265046</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1268,7 +1277,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6649026968</x:v>
+        <x:v>45907.4200526273</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1300,7 +1309,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45915.1683202894</x:v>
+        <x:v>45907.6649026968</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1332,7 +1341,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4208318634</x:v>
+        <x:v>45915.1683202894</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1364,7 +1373,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6651923611</x:v>
+        <x:v>45907.4208318634</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1396,7 +1405,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6647313657</x:v>
+        <x:v>45907.6651923611</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1428,7 +1437,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4201279745</x:v>
+        <x:v>45907.6647313657</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1460,7 +1469,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4219587963</x:v>
+        <x:v>45907.4201279745</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1492,7 +1501,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.676606331</x:v>
+        <x:v>45907.4219587963</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1524,7 +1533,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.442697419</x:v>
+        <x:v>45907.676606331</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1556,7 +1565,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6752527778</x:v>
+        <x:v>45907.442697419</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1588,7 +1597,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4205435185</x:v>
+        <x:v>45907.6752527778</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1620,7 +1629,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4202043171</x:v>
+        <x:v>45907.4205435185</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1652,7 +1661,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4196388889</x:v>
+        <x:v>45907.4202043171</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1684,7 +1693,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4200031597</x:v>
+        <x:v>45907.4196388889</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1716,7 +1725,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.671475463</x:v>
+        <x:v>45907.4200031597</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1748,7 +1757,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4206327546</x:v>
+        <x:v>45907.671475463</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1780,7 +1789,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.414475463</x:v>
+        <x:v>45907.4206327546</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1812,7 +1821,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4197322917</x:v>
+        <x:v>45907.414475463</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1829,6 +1838,38 @@
       <x:c r="R33" s="2" t="s"/>
       <x:c r="S33" s="2" t="s"/>
       <x:c r="T33" s="2" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:20">
+      <x:c r="A34" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B34" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="D34" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="E34" s="3">
+        <x:v>45907.4197322917</x:v>
+      </x:c>
+      <x:c r="F34" s="2" t="s"/>
+      <x:c r="G34" s="2" t="s"/>
+      <x:c r="H34" s="2" t="s"/>
+      <x:c r="I34" s="2" t="s"/>
+      <x:c r="J34" s="2" t="s"/>
+      <x:c r="K34" s="2" t="s"/>
+      <x:c r="L34" s="2" t="s"/>
+      <x:c r="M34" s="2" t="s"/>
+      <x:c r="N34" s="2" t="s"/>
+      <x:c r="O34" s="2" t="s"/>
+      <x:c r="P34" s="2" t="s"/>
+      <x:c r="Q34" s="2" t="s"/>
+      <x:c r="R34" s="2" t="s"/>
+      <x:c r="S34" s="2" t="s"/>
+      <x:c r="T34" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS242_Tutorial-35697.xlsx
+++ b/downloaded_files/MDPS242_Tutorial-35697.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -307,6 +307,24 @@
   </x:si>
   <x:si>
     <x:t>Hana Mohamed Roshdy Mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240188</x:t>
+  </x:si>
+  <x:si>
+    <x:t>هنداوي محمد هنداوي درويش</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hendawy Mohamed Hendawy Darwish</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240165</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوحنا ميخائيل خليفة ميخائيل خليل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youhana Mikhael Khalifa Mikhael</x:t>
   </x:si>
   <x:si>
     <x:t>1230290</x:t>
@@ -440,7 +458,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -740,7 +758,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T34"/>
+  <x:dimension ref="A1:T36"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1821,7 +1839,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.414475463</x:v>
+        <x:v>45925.4933082523</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1853,7 +1871,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4197322917</x:v>
+        <x:v>45925.3642092593</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1871,6 +1889,70 @@
       <x:c r="S34" s="2" t="s"/>
       <x:c r="T34" s="2" t="s"/>
     </x:row>
+    <x:row r="35" spans="1:20">
+      <x:c r="A35" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B35" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="D35" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="E35" s="3">
+        <x:v>45907.414475463</x:v>
+      </x:c>
+      <x:c r="F35" s="2" t="s"/>
+      <x:c r="G35" s="2" t="s"/>
+      <x:c r="H35" s="2" t="s"/>
+      <x:c r="I35" s="2" t="s"/>
+      <x:c r="J35" s="2" t="s"/>
+      <x:c r="K35" s="2" t="s"/>
+      <x:c r="L35" s="2" t="s"/>
+      <x:c r="M35" s="2" t="s"/>
+      <x:c r="N35" s="2" t="s"/>
+      <x:c r="O35" s="2" t="s"/>
+      <x:c r="P35" s="2" t="s"/>
+      <x:c r="Q35" s="2" t="s"/>
+      <x:c r="R35" s="2" t="s"/>
+      <x:c r="S35" s="2" t="s"/>
+      <x:c r="T35" s="2" t="s"/>
+    </x:row>
+    <x:row r="36" spans="1:20">
+      <x:c r="A36" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B36" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="D36" s="2" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="E36" s="3">
+        <x:v>45907.4197322917</x:v>
+      </x:c>
+      <x:c r="F36" s="2" t="s"/>
+      <x:c r="G36" s="2" t="s"/>
+      <x:c r="H36" s="2" t="s"/>
+      <x:c r="I36" s="2" t="s"/>
+      <x:c r="J36" s="2" t="s"/>
+      <x:c r="K36" s="2" t="s"/>
+      <x:c r="L36" s="2" t="s"/>
+      <x:c r="M36" s="2" t="s"/>
+      <x:c r="N36" s="2" t="s"/>
+      <x:c r="O36" s="2" t="s"/>
+      <x:c r="P36" s="2" t="s"/>
+      <x:c r="Q36" s="2" t="s"/>
+      <x:c r="R36" s="2" t="s"/>
+      <x:c r="S36" s="2" t="s"/>
+      <x:c r="T36" s="2" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1883,6 +1965,9 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Manufacturing Processes II (MDPS242) Location : [14502]14502-30-الجيزة الرئيسي Time : Sunday(13:16)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
+  <x:rowBreaks count="1" manualBreakCount="1">
+    <x:brk id="35" max="1048576" man="1"/>
+  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/MDPS242_Tutorial-35697.xlsx
+++ b/downloaded_files/MDPS242_Tutorial-35697.xlsx
@@ -87,6 +87,15 @@
     <x:t>Hassan Mohy Hassan Abdelmegeed Hassan</x:t>
   </x:si>
   <x:si>
+    <x:t>1240194</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">زياد عمر احمد عمر </x:t>
+  </x:si>
+  <x:si>
+    <x:t>ZEYAD OMAR AHMED OMAR</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230331</x:t>
   </x:si>
   <x:si>
@@ -118,15 +127,6 @@
   </x:si>
   <x:si>
     <x:t>abdallah mohamed gamal eldin ahmed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210061</x:t>
-  </x:si>
-  <x:si>
-    <x:t>على محمد عبد المنجى مصطفى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ali mohamed abdelmongy mostafa</x:t>
   </x:si>
   <x:si>
     <x:t>1230216</x:t>
@@ -1041,7 +1041,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4207540509</x:v>
+        <x:v>45925.8051555556</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1069,9 +1069,11 @@
       <x:c r="C9" s="2" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="D9" s="2" t="s"/>
+      <x:c r="D9" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
       <x:c r="E9" s="3">
-        <x:v>45909.4156564005</x:v>
+        <x:v>45907.4207540509</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1094,16 +1096,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="D10" s="2" t="s">
         <x:v>30</x:v>
       </x:c>
+      <x:c r="D10" s="2" t="s"/>
       <x:c r="E10" s="3">
-        <x:v>45907.4263441319</x:v>
+        <x:v>45909.4156564005</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1135,7 +1135,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4200861111</x:v>
+        <x:v>45907.4263441319</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1167,7 +1167,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6696751157</x:v>
+        <x:v>45907.4200861111</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>

--- a/downloaded_files/MDPS242_Tutorial-35697.xlsx
+++ b/downloaded_files/MDPS242_Tutorial-35697.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -325,6 +325,15 @@
   </x:si>
   <x:si>
     <x:t>Youhana Mikhael Khalifa Mikhael</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220297</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف عادل محمد حمزاوي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Hamzawi</x:t>
   </x:si>
   <x:si>
     <x:t>1230290</x:t>
@@ -458,7 +467,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -758,7 +767,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T36"/>
+  <x:dimension ref="A1:T37"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1903,7 +1912,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.414475463</x:v>
+        <x:v>45926.4591123032</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1935,7 +1944,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.4197322917</x:v>
+        <x:v>45907.414475463</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1952,6 +1961,38 @@
       <x:c r="R36" s="2" t="s"/>
       <x:c r="S36" s="2" t="s"/>
       <x:c r="T36" s="2" t="s"/>
+    </x:row>
+    <x:row r="37" spans="1:20">
+      <x:c r="A37" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B37" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="C37" s="2" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="D37" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="E37" s="3">
+        <x:v>45907.4197322917</x:v>
+      </x:c>
+      <x:c r="F37" s="2" t="s"/>
+      <x:c r="G37" s="2" t="s"/>
+      <x:c r="H37" s="2" t="s"/>
+      <x:c r="I37" s="2" t="s"/>
+      <x:c r="J37" s="2" t="s"/>
+      <x:c r="K37" s="2" t="s"/>
+      <x:c r="L37" s="2" t="s"/>
+      <x:c r="M37" s="2" t="s"/>
+      <x:c r="N37" s="2" t="s"/>
+      <x:c r="O37" s="2" t="s"/>
+      <x:c r="P37" s="2" t="s"/>
+      <x:c r="Q37" s="2" t="s"/>
+      <x:c r="R37" s="2" t="s"/>
+      <x:c r="S37" s="2" t="s"/>
+      <x:c r="T37" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS242_Tutorial-35697.xlsx
+++ b/downloaded_files/MDPS242_Tutorial-35697.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -69,15 +69,6 @@
     <x:t>berty samir tawadros</x:t>
   </x:si>
   <x:si>
-    <x:t>1240300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>حبيبه محمد محجوب منصور صباح</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Habiba Mohammed Mahgoub Munsour r</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240193</x:t>
   </x:si>
   <x:si>
@@ -228,6 +219,15 @@
     <x:t>Mohamed Elsayed  Elsamaty</x:t>
   </x:si>
   <x:si>
+    <x:t>1230107</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد عاطف محمود احمد خليل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed atef</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240140</x:t>
   </x:si>
   <x:si>
@@ -237,24 +237,6 @@
     <x:t>Mohamed Hesham Mohamed Abdelrahman Selim Ataia</x:t>
   </x:si>
   <x:si>
-    <x:t>1220314</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد وليد محمد جاد الكريم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mohamed waleed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230259</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مصطفى محمد رامى محمود غالى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mostafa Mohamed Rami Mahmoud Ghaly</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230140</x:t>
   </x:si>
   <x:si>
@@ -327,13 +309,13 @@
     <x:t>Youhana Mikhael Khalifa Mikhael</x:t>
   </x:si>
   <x:si>
-    <x:t>1220297</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف عادل محمد حمزاوي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssef Hamzawi</x:t>
+    <x:t>1240166</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوساب يوسف اسحق برسوم حنين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssab Youssef</x:t>
   </x:si>
   <x:si>
     <x:t>1230290</x:t>
@@ -467,7 +449,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -767,7 +749,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T37"/>
+  <x:dimension ref="A1:T35"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -986,7 +968,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45912.0407003472</x:v>
+        <x:v>45927.5816921296</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1018,7 +1000,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45914.4389700579</x:v>
+        <x:v>45925.8051555556</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1050,7 +1032,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45925.8051555556</x:v>
+        <x:v>45907.4207540509</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1078,11 +1060,9 @@
       <x:c r="C9" s="2" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="D9" s="2" t="s">
-        <x:v>28</x:v>
-      </x:c>
+      <x:c r="D9" s="2" t="s"/>
       <x:c r="E9" s="3">
-        <x:v>45907.4207540509</x:v>
+        <x:v>45909.4156564005</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1105,14 +1085,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C10" s="2" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="C10" s="2" t="s">
+      <x:c r="D10" s="2" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="D10" s="2" t="s"/>
       <x:c r="E10" s="3">
-        <x:v>45909.4156564005</x:v>
+        <x:v>45907.4263441319</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1144,7 +1126,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4263441319</x:v>
+        <x:v>45907.4200861111</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1176,7 +1158,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4200861111</x:v>
+        <x:v>45907.4206867708</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1208,7 +1190,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4206867708</x:v>
+        <x:v>45924.5387831829</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1240,7 +1222,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45924.5387831829</x:v>
+        <x:v>45922.9380265046</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1272,7 +1254,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45922.9380265046</x:v>
+        <x:v>45907.4200526273</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1304,7 +1286,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4200526273</x:v>
+        <x:v>45907.6649026968</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1336,7 +1318,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6649026968</x:v>
+        <x:v>45915.1683202894</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1368,7 +1350,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45915.1683202894</x:v>
+        <x:v>45907.4208318634</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1400,7 +1382,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4208318634</x:v>
+        <x:v>45907.6651923611</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1432,7 +1414,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6651923611</x:v>
+        <x:v>45907.6647313657</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1464,7 +1446,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6647313657</x:v>
+        <x:v>45907.4201279745</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1496,7 +1478,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4201279745</x:v>
+        <x:v>45907.4219587963</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1528,7 +1510,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4219587963</x:v>
+        <x:v>45927.4865979514</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1592,7 +1574,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.442697419</x:v>
+        <x:v>45907.4205435185</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1624,7 +1606,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6752527778</x:v>
+        <x:v>45907.4202043171</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1656,7 +1638,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4205435185</x:v>
+        <x:v>45907.4196388889</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1688,7 +1670,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4202043171</x:v>
+        <x:v>45907.4200031597</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1720,7 +1702,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4196388889</x:v>
+        <x:v>45907.671475463</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1752,7 +1734,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4200031597</x:v>
+        <x:v>45907.4206327546</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1784,7 +1766,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.671475463</x:v>
+        <x:v>45925.4933082523</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1816,7 +1798,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4206327546</x:v>
+        <x:v>45925.3642092593</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1848,7 +1830,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45925.4933082523</x:v>
+        <x:v>45927.4554697569</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1880,7 +1862,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45925.3642092593</x:v>
+        <x:v>45907.414475463</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1912,7 +1894,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45926.4591123032</x:v>
+        <x:v>45907.4197322917</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1929,70 +1911,6 @@
       <x:c r="R35" s="2" t="s"/>
       <x:c r="S35" s="2" t="s"/>
       <x:c r="T35" s="2" t="s"/>
-    </x:row>
-    <x:row r="36" spans="1:20">
-      <x:c r="A36" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B36" s="2" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="C36" s="2" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="D36" s="2" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="E36" s="3">
-        <x:v>45907.414475463</x:v>
-      </x:c>
-      <x:c r="F36" s="2" t="s"/>
-      <x:c r="G36" s="2" t="s"/>
-      <x:c r="H36" s="2" t="s"/>
-      <x:c r="I36" s="2" t="s"/>
-      <x:c r="J36" s="2" t="s"/>
-      <x:c r="K36" s="2" t="s"/>
-      <x:c r="L36" s="2" t="s"/>
-      <x:c r="M36" s="2" t="s"/>
-      <x:c r="N36" s="2" t="s"/>
-      <x:c r="O36" s="2" t="s"/>
-      <x:c r="P36" s="2" t="s"/>
-      <x:c r="Q36" s="2" t="s"/>
-      <x:c r="R36" s="2" t="s"/>
-      <x:c r="S36" s="2" t="s"/>
-      <x:c r="T36" s="2" t="s"/>
-    </x:row>
-    <x:row r="37" spans="1:20">
-      <x:c r="A37" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B37" s="2" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="C37" s="2" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="D37" s="2" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="E37" s="3">
-        <x:v>45907.4197322917</x:v>
-      </x:c>
-      <x:c r="F37" s="2" t="s"/>
-      <x:c r="G37" s="2" t="s"/>
-      <x:c r="H37" s="2" t="s"/>
-      <x:c r="I37" s="2" t="s"/>
-      <x:c r="J37" s="2" t="s"/>
-      <x:c r="K37" s="2" t="s"/>
-      <x:c r="L37" s="2" t="s"/>
-      <x:c r="M37" s="2" t="s"/>
-      <x:c r="N37" s="2" t="s"/>
-      <x:c r="O37" s="2" t="s"/>
-      <x:c r="P37" s="2" t="s"/>
-      <x:c r="Q37" s="2" t="s"/>
-      <x:c r="R37" s="2" t="s"/>
-      <x:c r="S37" s="2" t="s"/>
-      <x:c r="T37" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS242_Tutorial-35697.xlsx
+++ b/downloaded_files/MDPS242_Tutorial-35697.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -172,15 +172,6 @@
   </x:si>
   <x:si>
     <x:t>Kenzie Ahmed Hussein</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220018</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مازن محمد سيد خليفه احمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mazen Mohamed Sayed Khalifa</x:t>
   </x:si>
   <x:si>
     <x:t>1240353</x:t>
@@ -449,7 +440,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -749,7 +740,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T35"/>
+  <x:dimension ref="A1:T34"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1350,7 +1341,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4208318634</x:v>
+        <x:v>45907.6651923611</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1382,7 +1373,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6651923611</x:v>
+        <x:v>45907.6647313657</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1414,7 +1405,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6647313657</x:v>
+        <x:v>45907.4201279745</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1446,7 +1437,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4201279745</x:v>
+        <x:v>45907.4219587963</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1478,7 +1469,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4219587963</x:v>
+        <x:v>45927.4865979514</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1510,7 +1501,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45927.4865979514</x:v>
+        <x:v>45907.676606331</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1542,7 +1533,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.676606331</x:v>
+        <x:v>45907.4205435185</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1574,7 +1565,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4205435185</x:v>
+        <x:v>45907.4202043171</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1606,7 +1597,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4202043171</x:v>
+        <x:v>45907.4196388889</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1638,7 +1629,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4196388889</x:v>
+        <x:v>45907.4200031597</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1670,7 +1661,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4200031597</x:v>
+        <x:v>45907.671475463</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1702,7 +1693,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.671475463</x:v>
+        <x:v>45907.4206327546</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1734,7 +1725,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4206327546</x:v>
+        <x:v>45925.4933082523</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1766,7 +1757,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45925.4933082523</x:v>
+        <x:v>45925.3642092593</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1798,7 +1789,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45925.3642092593</x:v>
+        <x:v>45927.4554697569</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1830,7 +1821,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45927.4554697569</x:v>
+        <x:v>45907.414475463</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1862,7 +1853,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.414475463</x:v>
+        <x:v>45907.4197322917</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1880,38 +1871,6 @@
       <x:c r="S34" s="2" t="s"/>
       <x:c r="T34" s="2" t="s"/>
     </x:row>
-    <x:row r="35" spans="1:20">
-      <x:c r="A35" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B35" s="2" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="C35" s="2" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="D35" s="2" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="E35" s="3">
-        <x:v>45907.4197322917</x:v>
-      </x:c>
-      <x:c r="F35" s="2" t="s"/>
-      <x:c r="G35" s="2" t="s"/>
-      <x:c r="H35" s="2" t="s"/>
-      <x:c r="I35" s="2" t="s"/>
-      <x:c r="J35" s="2" t="s"/>
-      <x:c r="K35" s="2" t="s"/>
-      <x:c r="L35" s="2" t="s"/>
-      <x:c r="M35" s="2" t="s"/>
-      <x:c r="N35" s="2" t="s"/>
-      <x:c r="O35" s="2" t="s"/>
-      <x:c r="P35" s="2" t="s"/>
-      <x:c r="Q35" s="2" t="s"/>
-      <x:c r="R35" s="2" t="s"/>
-      <x:c r="S35" s="2" t="s"/>
-      <x:c r="T35" s="2" t="s"/>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1924,9 +1883,6 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Manufacturing Processes II (MDPS242) Location : [14502]14502-30-الجيزة الرئيسي Time : Sunday(13:16)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
-  <x:rowBreaks count="1" manualBreakCount="1">
-    <x:brk id="35" max="1048576" man="1"/>
-  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/MDPS242_Tutorial-35697.xlsx
+++ b/downloaded_files/MDPS242_Tutorial-35697.xlsx
@@ -1876,11 +1876,11 @@
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Manufacturing Processes II (MDPS242) Location : [14502]14502-30-الجيزة الرئيسي Time : Sunday(13:16)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Manufacturing Processes II (MDPS242) Location : [18101]18101-45-الجيزة الرئيسي Time : Sunday(13:16)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Manufacturing Processes II (MDPS242) Location : [14502]14502-30-الجيزة الرئيسي Time : Sunday(13:16)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Manufacturing Processes II (MDPS242) Location : [18101]18101-45-الجيزة الرئيسي Time : Sunday(13:16)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Manufacturing Processes II (MDPS242) Location : [14502]14502-30-الجيزة الرئيسي Time : Sunday(13:16)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Manufacturing Processes II (MDPS242) Location : [18101]18101-45-الجيزة الرئيسي Time : Sunday(13:16)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:tableParts count="1">

--- a/downloaded_files/MDPS242_Tutorial-35697.xlsx
+++ b/downloaded_files/MDPS242_Tutorial-35697.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -31,6 +31,15 @@
   </x:si>
   <x:si>
     <x:t>Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220219</x:t>
+  </x:si>
+  <x:si>
+    <x:t>أندرو وليد جرجس كيرلس</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Andrew Walid Girgis</x:t>
   </x:si>
   <x:si>
     <x:t>1230147</x:t>
@@ -440,7 +449,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -740,7 +749,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T34"/>
+  <x:dimension ref="A1:T35"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -831,7 +840,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45907.6663258449</x:v>
+        <x:v>45928.914578588</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -863,7 +872,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.4149455671</x:v>
+        <x:v>45907.6663258449</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -895,7 +904,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.665227581</x:v>
+        <x:v>45907.4149455671</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -927,7 +936,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45909.4296262732</x:v>
+        <x:v>45907.665227581</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -959,7 +968,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45927.5816921296</x:v>
+        <x:v>45909.4296262732</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -991,7 +1000,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45925.8051555556</x:v>
+        <x:v>45927.5816921296</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1023,7 +1032,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4207540509</x:v>
+        <x:v>45925.8051555556</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1051,9 +1060,11 @@
       <x:c r="C9" s="2" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="D9" s="2" t="s"/>
+      <x:c r="D9" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
       <x:c r="E9" s="3">
-        <x:v>45909.4156564005</x:v>
+        <x:v>45907.4207540509</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1076,16 +1087,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="D10" s="2" t="s">
         <x:v>30</x:v>
       </x:c>
+      <x:c r="D10" s="2" t="s"/>
       <x:c r="E10" s="3">
-        <x:v>45907.4263441319</x:v>
+        <x:v>45909.4156564005</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1117,7 +1126,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4200861111</x:v>
+        <x:v>45907.4263441319</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1149,7 +1158,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4206867708</x:v>
+        <x:v>45907.4200861111</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1181,7 +1190,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45924.5387831829</x:v>
+        <x:v>45907.4206867708</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1213,7 +1222,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45922.9380265046</x:v>
+        <x:v>45924.5387831829</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1245,7 +1254,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4200526273</x:v>
+        <x:v>45922.9380265046</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1277,7 +1286,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6649026968</x:v>
+        <x:v>45907.4200526273</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1309,7 +1318,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45915.1683202894</x:v>
+        <x:v>45907.6649026968</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1341,7 +1350,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6651923611</x:v>
+        <x:v>45915.1683202894</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1373,7 +1382,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6647313657</x:v>
+        <x:v>45907.6651923611</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1405,7 +1414,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4201279745</x:v>
+        <x:v>45907.6647313657</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1437,7 +1446,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4219587963</x:v>
+        <x:v>45907.4201279745</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1469,7 +1478,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45927.4865979514</x:v>
+        <x:v>45907.4219587963</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1501,7 +1510,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.676606331</x:v>
+        <x:v>45927.4865979514</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1533,7 +1542,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4205435185</x:v>
+        <x:v>45907.676606331</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1565,7 +1574,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4202043171</x:v>
+        <x:v>45907.4205435185</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1597,7 +1606,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4196388889</x:v>
+        <x:v>45907.4202043171</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1629,7 +1638,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4200031597</x:v>
+        <x:v>45907.4196388889</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1661,7 +1670,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.671475463</x:v>
+        <x:v>45907.4200031597</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1693,7 +1702,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4206327546</x:v>
+        <x:v>45907.671475463</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1725,7 +1734,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45925.4933082523</x:v>
+        <x:v>45907.4206327546</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1757,7 +1766,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45925.3642092593</x:v>
+        <x:v>45925.4933082523</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1789,7 +1798,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45927.4554697569</x:v>
+        <x:v>45925.3642092593</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1821,7 +1830,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.414475463</x:v>
+        <x:v>45927.4554697569</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1853,7 +1862,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4197322917</x:v>
+        <x:v>45907.414475463</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1871,6 +1880,38 @@
       <x:c r="S34" s="2" t="s"/>
       <x:c r="T34" s="2" t="s"/>
     </x:row>
+    <x:row r="35" spans="1:20">
+      <x:c r="A35" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B35" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="D35" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="E35" s="3">
+        <x:v>45907.4197322917</x:v>
+      </x:c>
+      <x:c r="F35" s="2" t="s"/>
+      <x:c r="G35" s="2" t="s"/>
+      <x:c r="H35" s="2" t="s"/>
+      <x:c r="I35" s="2" t="s"/>
+      <x:c r="J35" s="2" t="s"/>
+      <x:c r="K35" s="2" t="s"/>
+      <x:c r="L35" s="2" t="s"/>
+      <x:c r="M35" s="2" t="s"/>
+      <x:c r="N35" s="2" t="s"/>
+      <x:c r="O35" s="2" t="s"/>
+      <x:c r="P35" s="2" t="s"/>
+      <x:c r="Q35" s="2" t="s"/>
+      <x:c r="R35" s="2" t="s"/>
+      <x:c r="S35" s="2" t="s"/>
+      <x:c r="T35" s="2" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1883,6 +1924,9 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Manufacturing Processes II (MDPS242) Location : [18101]18101-45-الجيزة الرئيسي Time : Sunday(13:16)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
+  <x:rowBreaks count="1" manualBreakCount="1">
+    <x:brk id="35" max="1048576" man="1"/>
+  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/MDPS242_Tutorial-35697.xlsx
+++ b/downloaded_files/MDPS242_Tutorial-35697.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -76,6 +76,15 @@
   </x:si>
   <x:si>
     <x:t>berty samir tawadros</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2230016</x:t>
+  </x:si>
+  <x:si>
+    <x:t>جمانة جمال شريف فاضل</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> GUMANA GAMAL SHARIF FADHEL</x:t>
   </x:si>
   <x:si>
     <x:t>1240193</x:t>
@@ -449,7 +458,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -749,7 +758,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T35"/>
+  <x:dimension ref="A1:T36"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1000,7 +1009,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45927.5816921296</x:v>
+        <x:v>45929.4210601852</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1032,7 +1041,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45925.8051555556</x:v>
+        <x:v>45927.5816921296</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1064,7 +1073,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4207540509</x:v>
+        <x:v>45925.8051555556</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1092,9 +1101,11 @@
       <x:c r="C10" s="2" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="D10" s="2" t="s"/>
+      <x:c r="D10" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
       <x:c r="E10" s="3">
-        <x:v>45909.4156564005</x:v>
+        <x:v>45907.4207540509</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1117,16 +1128,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="D11" s="2" t="s">
         <x:v>33</x:v>
       </x:c>
+      <x:c r="D11" s="2" t="s"/>
       <x:c r="E11" s="3">
-        <x:v>45907.4263441319</x:v>
+        <x:v>45909.4156564005</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1158,7 +1167,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4200861111</x:v>
+        <x:v>45907.4263441319</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1190,7 +1199,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4206867708</x:v>
+        <x:v>45907.4200861111</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1222,7 +1231,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45924.5387831829</x:v>
+        <x:v>45907.4206867708</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1254,7 +1263,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45922.9380265046</x:v>
+        <x:v>45924.5387831829</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1286,7 +1295,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4200526273</x:v>
+        <x:v>45922.9380265046</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1318,7 +1327,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6649026968</x:v>
+        <x:v>45907.4200526273</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1350,7 +1359,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45915.1683202894</x:v>
+        <x:v>45907.6649026968</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1382,7 +1391,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6651923611</x:v>
+        <x:v>45915.1683202894</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1414,7 +1423,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6647313657</x:v>
+        <x:v>45907.6651923611</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1446,7 +1455,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4201279745</x:v>
+        <x:v>45907.6647313657</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1478,7 +1487,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4219587963</x:v>
+        <x:v>45907.4201279745</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1510,7 +1519,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45927.4865979514</x:v>
+        <x:v>45907.4219587963</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1542,7 +1551,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.676606331</x:v>
+        <x:v>45927.4865979514</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1574,7 +1583,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4205435185</x:v>
+        <x:v>45907.676606331</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1606,7 +1615,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4202043171</x:v>
+        <x:v>45907.4205435185</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1638,7 +1647,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4196388889</x:v>
+        <x:v>45907.4202043171</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1670,7 +1679,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4200031597</x:v>
+        <x:v>45907.4196388889</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1702,7 +1711,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.671475463</x:v>
+        <x:v>45907.4200031597</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1734,7 +1743,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4206327546</x:v>
+        <x:v>45907.671475463</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1766,7 +1775,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45925.4933082523</x:v>
+        <x:v>45907.4206327546</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1798,7 +1807,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45925.3642092593</x:v>
+        <x:v>45925.4933082523</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1830,7 +1839,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45927.4554697569</x:v>
+        <x:v>45925.3642092593</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1862,7 +1871,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.414475463</x:v>
+        <x:v>45927.4554697569</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1894,7 +1903,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.4197322917</x:v>
+        <x:v>45907.414475463</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1911,6 +1920,38 @@
       <x:c r="R35" s="2" t="s"/>
       <x:c r="S35" s="2" t="s"/>
       <x:c r="T35" s="2" t="s"/>
+    </x:row>
+    <x:row r="36" spans="1:20">
+      <x:c r="A36" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B36" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="D36" s="2" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="E36" s="3">
+        <x:v>45907.4197322917</x:v>
+      </x:c>
+      <x:c r="F36" s="2" t="s"/>
+      <x:c r="G36" s="2" t="s"/>
+      <x:c r="H36" s="2" t="s"/>
+      <x:c r="I36" s="2" t="s"/>
+      <x:c r="J36" s="2" t="s"/>
+      <x:c r="K36" s="2" t="s"/>
+      <x:c r="L36" s="2" t="s"/>
+      <x:c r="M36" s="2" t="s"/>
+      <x:c r="N36" s="2" t="s"/>
+      <x:c r="O36" s="2" t="s"/>
+      <x:c r="P36" s="2" t="s"/>
+      <x:c r="Q36" s="2" t="s"/>
+      <x:c r="R36" s="2" t="s"/>
+      <x:c r="S36" s="2" t="s"/>
+      <x:c r="T36" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS242_Tutorial-35697.xlsx
+++ b/downloaded_files/MDPS242_Tutorial-35697.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -85,15 +85,6 @@
   </x:si>
   <x:si>
     <x:t xml:space="preserve"> GUMANA GAMAL SHARIF FADHEL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240193</x:t>
-  </x:si>
-  <x:si>
-    <x:t>حسن محى حسن عبدالمجيد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hassan Mohy Hassan Abdelmegeed Hassan</x:t>
   </x:si>
   <x:si>
     <x:t>1240194</x:t>
@@ -458,7 +449,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -758,7 +749,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T36"/>
+  <x:dimension ref="A1:T35"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1041,7 +1032,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45927.5816921296</x:v>
+        <x:v>45925.8051555556</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1073,7 +1064,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45925.8051555556</x:v>
+        <x:v>45907.4207540509</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1101,11 +1092,9 @@
       <x:c r="C10" s="2" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="D10" s="2" t="s">
-        <x:v>31</x:v>
-      </x:c>
+      <x:c r="D10" s="2" t="s"/>
       <x:c r="E10" s="3">
-        <x:v>45907.4207540509</x:v>
+        <x:v>45909.4156564005</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1128,14 +1117,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C11" s="2" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="C11" s="2" t="s">
+      <x:c r="D11" s="2" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="D11" s="2" t="s"/>
       <x:c r="E11" s="3">
-        <x:v>45909.4156564005</x:v>
+        <x:v>45907.4263441319</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1167,7 +1158,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4263441319</x:v>
+        <x:v>45907.4200861111</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1199,7 +1190,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4200861111</x:v>
+        <x:v>45907.4206867708</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1231,7 +1222,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4206867708</x:v>
+        <x:v>45924.5387831829</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1263,7 +1254,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45924.5387831829</x:v>
+        <x:v>45922.9380265046</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1295,7 +1286,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45922.9380265046</x:v>
+        <x:v>45907.4200526273</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1327,7 +1318,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4200526273</x:v>
+        <x:v>45907.6649026968</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1359,7 +1350,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6649026968</x:v>
+        <x:v>45915.1683202894</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1391,7 +1382,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45915.1683202894</x:v>
+        <x:v>45907.6651923611</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1423,7 +1414,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6651923611</x:v>
+        <x:v>45907.6647313657</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1455,7 +1446,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6647313657</x:v>
+        <x:v>45907.4201279745</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1487,7 +1478,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4201279745</x:v>
+        <x:v>45907.4219587963</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1519,7 +1510,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4219587963</x:v>
+        <x:v>45927.4865979514</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1551,7 +1542,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45927.4865979514</x:v>
+        <x:v>45907.676606331</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1583,7 +1574,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.676606331</x:v>
+        <x:v>45907.4205435185</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1615,7 +1606,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4205435185</x:v>
+        <x:v>45907.4202043171</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1647,7 +1638,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4202043171</x:v>
+        <x:v>45907.4196388889</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1679,7 +1670,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4196388889</x:v>
+        <x:v>45907.4200031597</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1711,7 +1702,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4200031597</x:v>
+        <x:v>45907.671475463</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1743,7 +1734,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.671475463</x:v>
+        <x:v>45907.4206327546</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1775,7 +1766,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4206327546</x:v>
+        <x:v>45925.4933082523</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1807,7 +1798,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45925.4933082523</x:v>
+        <x:v>45925.3642092593</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1839,7 +1830,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45925.3642092593</x:v>
+        <x:v>45927.4554697569</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1871,7 +1862,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45927.4554697569</x:v>
+        <x:v>45907.414475463</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1903,7 +1894,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.414475463</x:v>
+        <x:v>45907.4197322917</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1920,38 +1911,6 @@
       <x:c r="R35" s="2" t="s"/>
       <x:c r="S35" s="2" t="s"/>
       <x:c r="T35" s="2" t="s"/>
-    </x:row>
-    <x:row r="36" spans="1:20">
-      <x:c r="A36" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B36" s="2" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="C36" s="2" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="D36" s="2" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="E36" s="3">
-        <x:v>45907.4197322917</x:v>
-      </x:c>
-      <x:c r="F36" s="2" t="s"/>
-      <x:c r="G36" s="2" t="s"/>
-      <x:c r="H36" s="2" t="s"/>
-      <x:c r="I36" s="2" t="s"/>
-      <x:c r="J36" s="2" t="s"/>
-      <x:c r="K36" s="2" t="s"/>
-      <x:c r="L36" s="2" t="s"/>
-      <x:c r="M36" s="2" t="s"/>
-      <x:c r="N36" s="2" t="s"/>
-      <x:c r="O36" s="2" t="s"/>
-      <x:c r="P36" s="2" t="s"/>
-      <x:c r="Q36" s="2" t="s"/>
-      <x:c r="R36" s="2" t="s"/>
-      <x:c r="S36" s="2" t="s"/>
-      <x:c r="T36" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS242_Tutorial-35697.xlsx
+++ b/downloaded_files/MDPS242_Tutorial-35697.xlsx
@@ -90,7 +90,7 @@
     <x:t>1240194</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">زياد عمر احمد عمر </x:t>
+    <x:t>زياد عمر احمد عمر محمود السيد</x:t>
   </x:si>
   <x:si>
     <x:t>ZEYAD OMAR AHMED OMAR</x:t>
